--- a/2/1/UF-IVP fin de mes 1977 a 2021 - Mensual.xlsx
+++ b/2/1/UF-IVP fin de mes 1977 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
   <si>
     <t>Serie</t>
   </si>
@@ -1607,6 +1607,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +1967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C529"/>
+  <dimension ref="A1:C530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7342,6 +7345,17 @@
         <v>30966.58</v>
       </c>
     </row>
+    <row r="530" spans="1:3">
+      <c r="A530" t="s">
+        <v>531</v>
+      </c>
+      <c r="B530">
+        <v>29935.08</v>
+      </c>
+      <c r="C530">
+        <v>31076</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/1/UF-IVP fin de mes 1977 a 2021 - Mensual.xlsx
+++ b/2/1/UF-IVP fin de mes 1977 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
   <si>
     <t>Serie</t>
   </si>
@@ -1610,6 +1610,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1967,7 +1970,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C530"/>
+  <dimension ref="A1:C531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7356,6 +7359,17 @@
         <v>31076</v>
       </c>
     </row>
+    <row r="531" spans="1:3">
+      <c r="A531" t="s">
+        <v>532</v>
+      </c>
+      <c r="B531">
+        <v>30088.37</v>
+      </c>
+      <c r="C531">
+        <v>31188.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/1/UF-IVP fin de mes 1977 a 2021 - Mensual.xlsx
+++ b/2/1/UF-IVP fin de mes 1977 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
   <si>
     <t>Serie</t>
   </si>
@@ -1613,6 +1613,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1973,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C531"/>
+  <dimension ref="A1:C532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7370,6 +7373,17 @@
         <v>31188.6</v>
       </c>
     </row>
+    <row r="532" spans="1:3">
+      <c r="A532" t="s">
+        <v>533</v>
+      </c>
+      <c r="B532">
+        <v>30380.53</v>
+      </c>
+      <c r="C532">
+        <v>31338.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
